--- a/data/DNA_data/PB220522fd_batch_final_corrected.xlsx
+++ b/data/DNA_data/PB220522fd_batch_final_corrected.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\projekter\Master-thesis\data\DNA_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F12029-E30D-43B7-9D88-8373DC00F04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -136,12 +137,15 @@
   </si>
   <si>
     <t>26-05-2022 18:16:42</t>
+  </si>
+  <si>
+    <t>Weight (mg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -468,7 +472,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -598,6 +602,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -643,9 +658,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -966,17 +982,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="12" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,8 +1031,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1051,8 +1072,11 @@
       <c r="L2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1089,8 +1113,11 @@
       <c r="L3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1127,8 +1154,11 @@
       <c r="L4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1165,8 +1195,11 @@
       <c r="L5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1203,8 +1236,11 @@
       <c r="L6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1241,8 +1277,11 @@
       <c r="L7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1279,8 +1318,11 @@
       <c r="L8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1317,8 +1359,11 @@
       <c r="L9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1355,8 +1400,11 @@
       <c r="L10">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1393,8 +1441,11 @@
       <c r="L11">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1431,8 +1482,11 @@
       <c r="L12">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1469,8 +1523,11 @@
       <c r="L13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M13">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1507,8 +1564,11 @@
       <c r="L14">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M14">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1545,8 +1605,11 @@
       <c r="L15">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1583,8 +1646,11 @@
       <c r="L16">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M16">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1621,8 +1687,11 @@
       <c r="L17">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1659,8 +1728,11 @@
       <c r="L18">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M18">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1697,8 +1769,12 @@
       <c r="L19">
         <v>50</v>
       </c>
+      <c r="M19">
+        <v>24.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>